--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_8_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_8_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30393.51812441868</v>
+        <v>6048310.106759315</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30393.51812441868</v>
+        <v>6048310.106759315</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2866.254175463547</v>
+        <v>171975.2505278128</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2866.254175463547</v>
+        <v>171975.2505278128</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>958963398.0625921</v>
+        <v>39236459.94072007</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8436.534919732952</v>
+        <v>888417.3593976313</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16261.57495305038</v>
+        <v>1675528.009605502</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>24086.61498636779</v>
+        <v>2462638.659813375</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>32063.65895060864</v>
+        <v>3238851.87114393</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>39992.55635571943</v>
+        <v>4025976.907347185</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>47911.26354656277</v>
+        <v>4813136.208327349</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>55887.21959449675</v>
+        <v>5603020.476312996</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>64507.55243979982</v>
+        <v>6421889.817540071</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>72310.13671309596</v>
+        <v>7163925.944073637</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>80228.59942769659</v>
+        <v>7951036.594281506</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>88147.06214229723</v>
+        <v>8738147.244489381</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>96065.52485689786</v>
+        <v>9525257.894697258</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>103983.9875714985</v>
+        <v>10312368.54490514</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>111912.5682089325</v>
+        <v>11099430.54434072</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>120002.0133813295</v>
+        <v>11862199.03189812</v>
       </c>
     </row>
   </sheetData>
